--- a/仕様書/モルモットホイーラン_仕様書_BGMリソース.xlsx
+++ b/仕様書/モルモットホイーラン_仕様書_BGMリソース.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F3799-C875-41CE-9FCC-320498439D71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711AC4B-EE7F-4993-99F0-C249BC658AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -449,8 +449,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>項目名：プラスチックアドベンチャー
 再生時間は1～3分くらいが理想。</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://musmus.main.jp/music_game_05.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「セクション４～５」の音楽イメージと備考欄を記載</t>
+    <rPh sb="11" eb="13">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ビコウラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1423,27 +1443,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:73" s="2" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:73" s="4" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="6" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:73" s="6" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1474,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1530,7 +1550,7 @@
       <c r="BT7" s="23"/>
       <c r="BU7" s="23"/>
     </row>
-    <row r="8" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1626,7 @@
       <c r="BT8" s="23"/>
       <c r="BU8" s="23"/>
     </row>
-    <row r="9" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1680,7 +1700,7 @@
       <c r="BT9" s="23"/>
       <c r="BU9" s="23"/>
     </row>
-    <row r="10" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
@@ -1764,7 +1784,7 @@
       <c r="BT10" s="22"/>
       <c r="BU10" s="22"/>
     </row>
-    <row r="11" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1838,7 +1858,7 @@
       <c r="BT11" s="22"/>
       <c r="BU11" s="22"/>
     </row>
-    <row r="12" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1912,7 +1932,7 @@
       <c r="BT12" s="22"/>
       <c r="BU12" s="22"/>
     </row>
-    <row r="13" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -1994,7 +2014,7 @@
       <c r="BT13" s="27"/>
       <c r="BU13" s="27"/>
     </row>
-    <row r="14" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2076,7 +2096,7 @@
       <c r="BT14" s="28"/>
       <c r="BU14" s="28"/>
     </row>
-    <row r="15" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2158,7 +2178,7 @@
       <c r="BT15" s="28"/>
       <c r="BU15" s="28"/>
     </row>
-    <row r="16" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -2240,7 +2260,7 @@
       <c r="BT16" s="28"/>
       <c r="BU16" s="28"/>
     </row>
-    <row r="17" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2322,7 +2342,7 @@
       <c r="BT17" s="28"/>
       <c r="BU17" s="28"/>
     </row>
-    <row r="18" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -2404,7 +2424,7 @@
       <c r="BT18" s="28"/>
       <c r="BU18" s="28"/>
     </row>
-    <row r="19" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -2486,7 +2506,7 @@
       <c r="BT19" s="28"/>
       <c r="BU19" s="28"/>
     </row>
-    <row r="20" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2568,7 +2588,7 @@
       <c r="BT20" s="28"/>
       <c r="BU20" s="28"/>
     </row>
-    <row r="21" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -2650,7 +2670,7 @@
       <c r="BT21" s="28"/>
       <c r="BU21" s="28"/>
     </row>
-    <row r="22" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2658,7 +2678,9 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="32">
+        <v>44303</v>
+      </c>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
@@ -2669,7 +2691,9 @@
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="34"/>
-      <c r="T22" s="28"/>
+      <c r="T22" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="U22" s="28"/>
       <c r="V22" s="28"/>
       <c r="W22" s="28"/>
@@ -2677,7 +2701,9 @@
       <c r="Y22" s="28"/>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
+      <c r="AB22" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="28"/>
@@ -2692,7 +2718,9 @@
       <c r="AN22" s="28"/>
       <c r="AO22" s="28"/>
       <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
+      <c r="AQ22" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
@@ -2724,7 +2752,7 @@
       <c r="BT22" s="28"/>
       <c r="BU22" s="28"/>
     </row>
-    <row r="23" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2798,7 +2826,7 @@
       <c r="BT23" s="28"/>
       <c r="BU23" s="28"/>
     </row>
-    <row r="24" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2872,7 +2900,7 @@
       <c r="BT24" s="28"/>
       <c r="BU24" s="28"/>
     </row>
-    <row r="25" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -2946,7 +2974,7 @@
       <c r="BT25" s="28"/>
       <c r="BU25" s="28"/>
     </row>
-    <row r="26" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -3020,7 +3048,7 @@
       <c r="BT26" s="28"/>
       <c r="BU26" s="28"/>
     </row>
-    <row r="27" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -3094,7 +3122,7 @@
       <c r="BT27" s="28"/>
       <c r="BU27" s="28"/>
     </row>
-    <row r="28" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3168,7 +3196,7 @@
       <c r="BT28" s="28"/>
       <c r="BU28" s="28"/>
     </row>
-    <row r="29" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3242,7 +3270,7 @@
       <c r="BT29" s="28"/>
       <c r="BU29" s="28"/>
     </row>
-    <row r="30" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3316,7 +3344,7 @@
       <c r="BT30" s="28"/>
       <c r="BU30" s="28"/>
     </row>
-    <row r="31" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -3390,7 +3418,7 @@
       <c r="BT31" s="28"/>
       <c r="BU31" s="28"/>
     </row>
-    <row r="32" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3399,7 +3427,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -3408,7 +3436,7 @@
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3417,7 +3445,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -3426,7 +3454,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3435,7 +3463,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -3444,7 +3472,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3453,7 +3481,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3462,7 +3490,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3471,7 +3499,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -3480,7 +3508,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3489,7 +3517,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3498,7 +3526,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3507,7 +3535,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -3516,7 +3544,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3525,7 +3553,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -3534,7 +3562,7 @@
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3543,7 +3571,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -3552,7 +3580,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3561,7 +3589,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -3695,30 +3723,30 @@
   <dimension ref="A1:CD51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G7"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="4" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="6" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="6" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3757,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3814,7 +3842,7 @@
       <c r="CC7" s="42"/>
       <c r="CD7" s="43"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
@@ -3899,7 +3927,7 @@
       <c r="CC8" s="45"/>
       <c r="CD8" s="46"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3982,7 +4010,7 @@
       <c r="CC9" s="48"/>
       <c r="CD9" s="49"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
@@ -3993,7 +4021,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -4078,7 +4106,7 @@
       <c r="CC11" s="51"/>
       <c r="CD11" s="52"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4161,7 +4189,7 @@
       <c r="CC12" s="54"/>
       <c r="CD12" s="55"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -4254,7 +4282,7 @@
       <c r="CC13" s="56"/>
       <c r="CD13" s="56"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4347,7 +4375,7 @@
       <c r="CC14" s="20"/>
       <c r="CD14" s="21"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -4440,7 +4468,7 @@
       <c r="CC15" s="38"/>
       <c r="CD15" s="39"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -4533,7 +4561,7 @@
       <c r="CC16" s="38"/>
       <c r="CD16" s="39"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -4626,7 +4654,7 @@
       <c r="CC17" s="38"/>
       <c r="CD17" s="39"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4719,7 +4747,7 @@
       <c r="CC18" s="38"/>
       <c r="CD18" s="39"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4802,7 +4830,7 @@
       <c r="CC19" s="36"/>
       <c r="CD19" s="36"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4885,7 +4913,7 @@
       <c r="CC20" s="36"/>
       <c r="CD20" s="36"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4968,7 +4996,7 @@
       <c r="CC21" s="36"/>
       <c r="CD21" s="36"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -4977,7 +5005,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -4986,7 +5014,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -4995,7 +5023,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -5004,7 +5032,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -5013,7 +5041,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -5022,7 +5050,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5031,7 +5059,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -5040,7 +5068,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5049,7 +5077,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -5058,7 +5086,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5067,7 +5095,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -5076,7 +5104,7 @@
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -5085,7 +5113,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -5094,7 +5122,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5103,7 +5131,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -5112,7 +5140,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5121,7 +5149,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -5130,7 +5158,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5139,7 +5167,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -5148,7 +5176,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5157,7 +5185,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -5166,7 +5194,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -5175,7 +5203,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -5184,7 +5212,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -5193,7 +5221,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -5202,7 +5230,7 @@
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -5211,7 +5239,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -5220,7 +5248,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -5229,7 +5257,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -5329,30 +5357,30 @@
   <dimension ref="A1:CD77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G9"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="4" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="6" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="6" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5363,7 +5391,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -5448,7 +5476,7 @@
       <c r="CC7" s="42"/>
       <c r="CD7" s="43"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
@@ -5533,7 +5561,7 @@
       <c r="CC8" s="45"/>
       <c r="CD8" s="46"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -5616,7 +5644,7 @@
       <c r="CC9" s="48"/>
       <c r="CD9" s="49"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
@@ -5627,7 +5655,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -5712,7 +5740,7 @@
       <c r="CC11" s="51"/>
       <c r="CD11" s="52"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5795,7 +5823,7 @@
       <c r="CC12" s="54"/>
       <c r="CD12" s="55"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -5888,7 +5916,7 @@
       <c r="CC13" s="56"/>
       <c r="CD13" s="56"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -5981,7 +6009,7 @@
       <c r="CC14" s="60"/>
       <c r="CD14" s="60"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -6064,7 +6092,7 @@
       <c r="CC15" s="36"/>
       <c r="CD15" s="36"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -6147,7 +6175,7 @@
       <c r="CC16" s="36"/>
       <c r="CD16" s="36"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -6234,7 +6262,7 @@
       <c r="CC17" s="36"/>
       <c r="CD17" s="36"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -6317,7 +6345,7 @@
       <c r="CC18" s="36"/>
       <c r="CD18" s="36"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -6404,7 +6432,7 @@
       <c r="CC19" s="58"/>
       <c r="CD19" s="58"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -6487,7 +6515,7 @@
       <c r="CC20" s="58"/>
       <c r="CD20" s="58"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6570,7 +6598,7 @@
       <c r="CC21" s="58"/>
       <c r="CD21" s="58"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -6579,7 +6607,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6588,7 +6616,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -6597,7 +6625,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6682,7 +6710,7 @@
       <c r="CC25" s="51"/>
       <c r="CD25" s="52"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -6765,7 +6793,7 @@
       <c r="CC26" s="54"/>
       <c r="CD26" s="55"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -6858,7 +6886,7 @@
       <c r="CC27" s="56"/>
       <c r="CD27" s="56"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -6951,7 +6979,7 @@
       <c r="CC28" s="60"/>
       <c r="CD28" s="60"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -7034,7 +7062,7 @@
       <c r="CC29" s="36"/>
       <c r="CD29" s="36"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -7117,7 +7145,7 @@
       <c r="CC30" s="36"/>
       <c r="CD30" s="36"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -7204,7 +7232,7 @@
       <c r="CC31" s="36"/>
       <c r="CD31" s="36"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -7287,7 +7315,7 @@
       <c r="CC32" s="36"/>
       <c r="CD32" s="36"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -7374,7 +7402,7 @@
       <c r="CC33" s="59"/>
       <c r="CD33" s="59"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -7457,7 +7485,7 @@
       <c r="CC34" s="59"/>
       <c r="CD34" s="59"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -7540,7 +7568,7 @@
       <c r="CC35" s="59"/>
       <c r="CD35" s="59"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -7549,7 +7577,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -7558,7 +7586,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -7567,7 +7595,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -7652,7 +7680,7 @@
       <c r="CC39" s="51"/>
       <c r="CD39" s="52"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -7735,7 +7763,7 @@
       <c r="CC40" s="54"/>
       <c r="CD40" s="55"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -7828,7 +7856,7 @@
       <c r="CC41" s="56"/>
       <c r="CD41" s="56"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -7921,7 +7949,7 @@
       <c r="CC42" s="60"/>
       <c r="CD42" s="60"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -8004,7 +8032,7 @@
       <c r="CC43" s="36"/>
       <c r="CD43" s="36"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -8087,7 +8115,7 @@
       <c r="CC44" s="36"/>
       <c r="CD44" s="36"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -8174,7 +8202,7 @@
       <c r="CC45" s="36"/>
       <c r="CD45" s="36"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -8257,7 +8285,7 @@
       <c r="CC46" s="36"/>
       <c r="CD46" s="36"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -8344,7 +8372,7 @@
       <c r="CC47" s="59"/>
       <c r="CD47" s="59"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -8427,7 +8455,7 @@
       <c r="CC48" s="59"/>
       <c r="CD48" s="59"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -8510,7 +8538,7 @@
       <c r="CC49" s="59"/>
       <c r="CD49" s="59"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -8519,7 +8547,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -8528,8 +8556,8 @@
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I53" s="50" t="s">
         <v>46</v>
       </c>
@@ -8607,7 +8635,7 @@
       <c r="CC53" s="51"/>
       <c r="CD53" s="52"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I54" s="53"/>
       <c r="J54" s="54"/>
       <c r="K54" s="54"/>
@@ -8683,7 +8711,7 @@
       <c r="CC54" s="54"/>
       <c r="CD54" s="55"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I55" s="56" t="s">
         <v>2</v>
       </c>
@@ -8769,7 +8797,7 @@
       <c r="CC55" s="56"/>
       <c r="CD55" s="56"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="60" t="s">
         <v>28</v>
       </c>
@@ -8855,7 +8883,7 @@
       <c r="CC56" s="60"/>
       <c r="CD56" s="60"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -8931,7 +8959,7 @@
       <c r="CC57" s="36"/>
       <c r="CD57" s="36"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
@@ -9007,7 +9035,7 @@
       <c r="CC58" s="36"/>
       <c r="CD58" s="36"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I59" s="36" t="s">
         <v>29</v>
       </c>
@@ -9087,7 +9115,7 @@
       <c r="CC59" s="36"/>
       <c r="CD59" s="36"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -9163,7 +9191,7 @@
       <c r="CC60" s="36"/>
       <c r="CD60" s="36"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="36" t="s">
         <v>30</v>
       </c>
@@ -9243,7 +9271,7 @@
       <c r="CC61" s="59"/>
       <c r="CD61" s="59"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -9319,7 +9347,7 @@
       <c r="CC62" s="59"/>
       <c r="CD62" s="59"/>
     </row>
-    <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -9395,8 +9423,8 @@
       <c r="CC63" s="59"/>
       <c r="CD63" s="59"/>
     </row>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I67" s="50" t="s">
         <v>47</v>
       </c>
@@ -9474,7 +9502,7 @@
       <c r="CC67" s="51"/>
       <c r="CD67" s="52"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I68" s="53"/>
       <c r="J68" s="54"/>
       <c r="K68" s="54"/>
@@ -9550,7 +9578,7 @@
       <c r="CC68" s="54"/>
       <c r="CD68" s="55"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I69" s="56" t="s">
         <v>2</v>
       </c>
@@ -9636,7 +9664,7 @@
       <c r="CC69" s="56"/>
       <c r="CD69" s="56"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="60" t="s">
         <v>28</v>
       </c>
@@ -9722,7 +9750,7 @@
       <c r="CC70" s="60"/>
       <c r="CD70" s="60"/>
     </row>
-    <row r="71" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
@@ -9798,7 +9826,7 @@
       <c r="CC71" s="36"/>
       <c r="CD71" s="36"/>
     </row>
-    <row r="72" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
@@ -9874,7 +9902,7 @@
       <c r="CC72" s="36"/>
       <c r="CD72" s="36"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I73" s="36" t="s">
         <v>29</v>
       </c>
@@ -9890,7 +9918,9 @@
       <c r="S73" s="36"/>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="57"/>
+      <c r="V73" s="57" t="s">
+        <v>65</v>
+      </c>
       <c r="W73" s="36"/>
       <c r="X73" s="36"/>
       <c r="Y73" s="36"/>
@@ -9952,7 +9982,7 @@
       <c r="CC73" s="36"/>
       <c r="CD73" s="36"/>
     </row>
-    <row r="74" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
@@ -10028,7 +10058,7 @@
       <c r="CC74" s="36"/>
       <c r="CD74" s="36"/>
     </row>
-    <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="36" t="s">
         <v>30</v>
       </c>
@@ -10108,7 +10138,7 @@
       <c r="CC75" s="59"/>
       <c r="CD75" s="59"/>
     </row>
-    <row r="76" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -10184,7 +10214,7 @@
       <c r="CC76" s="59"/>
       <c r="CD76" s="59"/>
     </row>
-    <row r="77" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
@@ -10373,8 +10403,9 @@
     <hyperlink ref="V31" r:id="rId2" xr:uid="{BA50BE75-AB85-4ED6-BAAF-7DC2FDF0F2AC}"/>
     <hyperlink ref="V45" r:id="rId3" xr:uid="{FDBE3975-C13E-4B23-9CBE-C107C50115C2}"/>
     <hyperlink ref="V59" r:id="rId4" xr:uid="{CD79D98F-E813-4858-B2D8-1D29CDEE5467}"/>
+    <hyperlink ref="V73" r:id="rId5" xr:uid="{A5905FE3-1897-4228-8325-7792FC3E0BE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>